--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippelegault/Documents/UniY3/Comp3004/master1/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF15A5-1611-9140-B694-8C65CEE327F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" refMode="R1C1"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -625,11 +624,29 @@
   <si>
     <t>yes</t>
   </si>
+  <si>
+    <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 1-12)</t>
+  </si>
+  <si>
+    <t>shown visually in testing</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 17-19)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (using show player button)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (played on separate machines)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1624,11 +1641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1858,9 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -1851,7 +1870,9 @@
         <v>127</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1864,7 +1885,9 @@
       <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1880,6 +1903,9 @@
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
@@ -1887,12 +1913,18 @@
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1929,7 +1961,9 @@
       <c r="C32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -1941,6 +1975,9 @@
       <c r="C33" s="7">
         <v>1</v>
       </c>
+      <c r="D33" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -1951,6 +1988,9 @@
       </c>
       <c r="C34" s="7">
         <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2874,10 +2914,5 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippelegault/Documents/UniY3/Comp3004/master1/COMP3004-QUEST/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A91E91-B140-5242-8E47-7B50DA10BF6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="179017" refMode="R1C1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -613,25 +614,16 @@
     <t>Bells and whistles</t>
   </si>
   <si>
-    <t>Unity Solution Was used</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 1-12)</t>
   </si>
   <si>
     <t>shown visually in testing</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 17-19)</t>
@@ -646,7 +638,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1641,11 +1633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,7 +1777,9 @@
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
@@ -1807,8 +1801,8 @@
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>126</v>
+      <c r="B17" s="9">
+        <v>2</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -1859,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1867,11 +1861,11 @@
         <v>113</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1886,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1894,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1903,9 +1897,6 @@
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
@@ -1913,18 +1904,12 @@
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>132</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1962,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,9 +2026,7 @@
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,7 +2049,9 @@
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
@@ -2075,7 +2060,9 @@
       <c r="A43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
@@ -2084,7 +2071,9 @@
       <c r="A44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
@@ -2093,7 +2082,9 @@
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
@@ -2102,7 +2093,9 @@
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -2111,7 +2104,9 @@
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
@@ -2120,7 +2115,9 @@
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
       <c r="C48" s="7">
         <v>2</v>
       </c>
@@ -2135,7 +2132,9 @@
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
@@ -2144,7 +2143,9 @@
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
@@ -2153,7 +2154,9 @@
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
@@ -2162,7 +2165,9 @@
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
@@ -2171,7 +2176,9 @@
       <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
@@ -2180,7 +2187,9 @@
       <c r="A55" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
       <c r="C55" s="7">
         <v>1</v>
       </c>
@@ -2189,7 +2198,9 @@
       <c r="A56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
@@ -2198,7 +2209,9 @@
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
@@ -2207,7 +2220,9 @@
       <c r="A58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
@@ -2222,7 +2237,9 @@
       <c r="A60" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
       <c r="C60" s="7">
         <v>1</v>
       </c>
@@ -2231,7 +2248,9 @@
       <c r="A61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="11">
+        <v>1</v>
+      </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
@@ -2240,7 +2259,9 @@
       <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
@@ -2249,7 +2270,9 @@
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
@@ -2258,7 +2281,9 @@
       <c r="A64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="11">
+        <v>1</v>
+      </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
@@ -2287,7 +2312,9 @@
       <c r="A69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="11">
+        <v>1</v>
+      </c>
       <c r="C69" s="7">
         <v>1</v>
       </c>
@@ -2296,7 +2323,9 @@
       <c r="A70" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="11">
+        <v>1</v>
+      </c>
       <c r="C70" s="7">
         <v>2</v>
       </c>
@@ -2306,7 +2335,9 @@
       <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="11">
+        <v>1</v>
+      </c>
       <c r="C71" s="7">
         <v>2</v>
       </c>
@@ -2326,7 +2357,9 @@
       <c r="A74" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
@@ -2335,7 +2368,9 @@
       <c r="A75" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
@@ -2345,6 +2380,9 @@
       <c r="A76" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="B76" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C76" s="7">
         <v>0.5</v>
       </c>
@@ -2354,7 +2392,9 @@
       <c r="A77" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C77" s="7">
         <v>0.5</v>
       </c>
@@ -2371,7 +2411,9 @@
       <c r="A79" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="11">
+        <v>0</v>
+      </c>
       <c r="C79" s="7">
         <v>2</v>
       </c>
@@ -2381,7 +2423,9 @@
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="11">
+        <v>0</v>
+      </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
@@ -2391,7 +2435,9 @@
       <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="11">
+        <v>0</v>
+      </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
@@ -2401,7 +2447,9 @@
       <c r="A82" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="11">
+        <v>0</v>
+      </c>
       <c r="C82" s="7">
         <v>1</v>
       </c>
@@ -2411,7 +2459,9 @@
       <c r="A83" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="11">
+        <v>0</v>
+      </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
@@ -2451,7 +2501,9 @@
       <c r="A88" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="11">
+        <v>1</v>
+      </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
@@ -2461,7 +2513,9 @@
       <c r="A89" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
       <c r="C89" s="7">
         <v>1</v>
       </c>
@@ -2471,7 +2525,9 @@
       <c r="A90" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="11">
+        <v>1</v>
+      </c>
       <c r="C90" s="7">
         <v>1</v>
       </c>
@@ -2481,7 +2537,9 @@
       <c r="A91" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91" s="11">
+        <v>1</v>
+      </c>
       <c r="C91" s="7">
         <v>1</v>
       </c>
@@ -2527,7 +2585,9 @@
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="11"/>
+      <c r="B95" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C95">
         <v>0.5</v>
       </c>
@@ -2537,7 +2597,9 @@
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="11"/>
+      <c r="B96" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C96" s="7">
         <v>0.5</v>
       </c>
@@ -2547,7 +2609,9 @@
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C97" s="7">
         <v>0.5</v>
       </c>
@@ -2556,7 +2620,9 @@
       <c r="A98" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C98" s="7">
         <v>0.5</v>
       </c>
@@ -2576,7 +2642,9 @@
       <c r="A100" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="11">
+        <v>0</v>
+      </c>
       <c r="C100" s="7">
         <v>0.5</v>
       </c>
@@ -2585,7 +2653,9 @@
       <c r="A101" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
       <c r="C101" s="7">
         <v>0.5</v>
       </c>
@@ -2812,7 +2882,9 @@
       <c r="A122" t="s">
         <v>103</v>
       </c>
-      <c r="B122" s="11"/>
+      <c r="B122" s="11">
+        <v>0</v>
+      </c>
       <c r="C122">
         <v>2</v>
       </c>
@@ -2821,7 +2893,9 @@
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="11">
+        <v>0</v>
+      </c>
       <c r="C123">
         <v>1</v>
       </c>
@@ -2830,7 +2904,9 @@
       <c r="A124" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="11"/>
+      <c r="B124" s="11">
+        <v>0</v>
+      </c>
       <c r="C124">
         <v>2</v>
       </c>
@@ -2839,7 +2915,9 @@
       <c r="A125" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="11"/>
+      <c r="B125" s="11">
+        <v>0</v>
+      </c>
       <c r="C125">
         <v>2</v>
       </c>
@@ -2848,7 +2926,9 @@
       <c r="A126" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="11"/>
+      <c r="B126" s="11">
+        <v>0</v>
+      </c>
       <c r="C126">
         <v>2</v>
       </c>
@@ -2857,7 +2937,9 @@
       <c r="A127" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="11"/>
+      <c r="B127" s="11">
+        <v>0</v>
+      </c>
       <c r="C127">
         <v>2</v>
       </c>
@@ -2891,9 +2973,21 @@
       <c r="A131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="11"/>
+      <c r="B131" s="11">
+        <v>0</v>
+      </c>
       <c r="C131">
         <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <f>SUM(B6:B131)</f>
+        <v>90</v>
+      </c>
+      <c r="C132">
+        <f>SUM(C4:C131)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -641,6 +641,30 @@
   </si>
   <si>
     <t>shown visually in testing (played on separate machines)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown visually in testing </t>
+  </si>
+  <si>
+    <t>what?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 45-47)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs)</t>
+  </si>
+  <si>
+    <t>shown visually in testing(use show player button, see updated values)</t>
+  </si>
+  <si>
+    <t>test not functional in multiplayer</t>
+  </si>
+  <si>
+    <t>qas</t>
   </si>
 </sst>
 </file>
@@ -737,8 +761,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="275">
+  <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1030,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="275">
+  <cellStyles count="277">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1168,6 +1194,7 @@
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1305,6 +1332,7 @@
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1644,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,8 +1989,8 @@
       <c r="C32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>131</v>
+      <c r="D32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,6 +2031,9 @@
       <c r="C35" s="7">
         <v>1</v>
       </c>
+      <c r="D35" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -2014,6 +2045,9 @@
       <c r="C36" s="7">
         <v>1</v>
       </c>
+      <c r="D36" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -2025,6 +2059,9 @@
       <c r="C37" s="7">
         <v>1</v>
       </c>
+      <c r="D37" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -2036,6 +2073,9 @@
       <c r="C38" s="7">
         <v>1</v>
       </c>
+      <c r="D38" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
@@ -2056,6 +2096,9 @@
       <c r="C40" s="7">
         <v>1</v>
       </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
@@ -2075,192 +2118,280 @@
       <c r="A43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
       <c r="C43" s="7">
         <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
       <c r="C44" s="7">
         <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
       <c r="C45" s="7">
         <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
       <c r="C46" s="7">
         <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
       <c r="C47" s="7">
         <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
       <c r="C48" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="C55" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
       <c r="C60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="11">
+        <v>1</v>
+      </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="11">
+        <v>1</v>
+      </c>
       <c r="C64" s="7">
         <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2287,7 +2418,9 @@
       <c r="A69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="11">
+        <v>1</v>
+      </c>
       <c r="C69" s="7">
         <v>1</v>
       </c>
@@ -2296,9 +2429,14 @@
       <c r="A70" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="11">
+        <v>1</v>
+      </c>
       <c r="C70" s="7">
         <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
       </c>
       <c r="E70" s="7"/>
     </row>
@@ -2306,9 +2444,14 @@
       <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="11">
+        <v>1</v>
+      </c>
       <c r="C71" s="7">
         <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2326,18 +2469,28 @@
       <c r="A74" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
       <c r="C74" s="7">
         <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
       <c r="C75" s="7">
         <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>140</v>
       </c>
       <c r="E75" s="7"/>
     </row>
@@ -2345,8 +2498,14 @@
       <c r="A76" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="B76" s="11">
+        <v>0</v>
+      </c>
       <c r="C76" s="7">
         <v>0.5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>142</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -2354,9 +2513,14 @@
       <c r="A77" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C77" s="7">
         <v>0.5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>140</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -2371,7 +2535,9 @@
       <c r="A79" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="11">
+        <v>0</v>
+      </c>
       <c r="C79" s="7">
         <v>2</v>
       </c>
@@ -2381,9 +2547,14 @@
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="11">
+        <v>1</v>
+      </c>
       <c r="C80" s="7">
         <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>140</v>
       </c>
       <c r="E80" s="7"/>
     </row>
@@ -2391,7 +2562,9 @@
       <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="11">
+        <v>0</v>
+      </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
@@ -2401,9 +2574,14 @@
       <c r="A82" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="11">
+        <v>0</v>
+      </c>
       <c r="C82" s="7">
         <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>143</v>
       </c>
       <c r="E82" s="7"/>
     </row>
@@ -2411,9 +2589,14 @@
       <c r="A83" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="11">
+        <v>1</v>
+      </c>
       <c r="C83" s="7">
         <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>140</v>
       </c>
       <c r="E83" s="7"/>
     </row>
@@ -2527,7 +2710,9 @@
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="11"/>
+      <c r="B95" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C95">
         <v>0.5</v>
       </c>

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippelegault/Documents/UniY3/Comp3004/master1/COMP3004-QUEST/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D26596-A30E-B048-BD69-08CF331CB35F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="179017" refMode="R1C1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -622,9 +623,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 1-12)</t>
   </si>
   <si>
@@ -644,12 +642,6 @@
   </si>
   <si>
     <t xml:space="preserve">shown visually in testing </t>
-  </si>
-  <si>
-    <t>what?</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 45-47)</t>
@@ -670,7 +662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1669,11 +1661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1887,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1899,7 +1891,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1914,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1932,7 +1924,7 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1942,7 +1934,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1952,7 +1944,7 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1990,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,15 +2066,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>129</v>
+      <c r="B39" s="5">
+        <v>1</v>
       </c>
       <c r="C39" s="7"/>
     </row>
@@ -2097,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2109,7 +2101,9 @@
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
@@ -2125,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2181,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2212,15 +2206,15 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>137</v>
+      <c r="B51" s="5">
+        <v>1</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -2230,8 +2224,8 @@
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>138</v>
+      <c r="B52" s="5">
+        <v>1</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
@@ -2248,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2262,15 +2256,15 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>137</v>
+      <c r="B55" s="11">
+        <v>1</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -2287,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2301,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2315,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2436,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="7"/>
     </row>
@@ -2451,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2476,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2490,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E75" s="7"/>
     </row>
@@ -2505,7 +2499,7 @@
         <v>0.5</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -2520,7 +2514,7 @@
         <v>0.5</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -2554,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E80" s="7"/>
     </row>
@@ -2581,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E82" s="7"/>
     </row>
@@ -2596,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E83" s="7"/>
     </row>
@@ -2634,7 +2628,9 @@
       <c r="A88" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="11">
+        <v>1</v>
+      </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
@@ -2644,7 +2640,9 @@
       <c r="A89" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
       <c r="C89" s="7">
         <v>1</v>
       </c>
@@ -2654,7 +2652,9 @@
       <c r="A90" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90">
+        <v>1</v>
+      </c>
       <c r="C90" s="7">
         <v>1</v>
       </c>
@@ -2664,7 +2664,9 @@
       <c r="A91" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91" s="11">
+        <v>1</v>
+      </c>
       <c r="C91" s="7">
         <v>1</v>
       </c>
@@ -2722,7 +2724,9 @@
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="11"/>
+      <c r="B96" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C96" s="7">
         <v>0.5</v>
       </c>
@@ -2732,7 +2736,9 @@
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C97" s="7">
         <v>0.5</v>
       </c>
@@ -2741,7 +2747,9 @@
       <c r="A98" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="11">
+        <v>0.5</v>
+      </c>
       <c r="C98" s="7">
         <v>0.5</v>
       </c>
@@ -2761,7 +2769,9 @@
       <c r="A100" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="11">
+        <v>0</v>
+      </c>
       <c r="C100" s="7">
         <v>0.5</v>
       </c>
@@ -2770,7 +2780,9 @@
       <c r="A101" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
       <c r="C101" s="7">
         <v>0.5</v>
       </c>
@@ -2893,7 +2905,7 @@
         <v>91</v>
       </c>
       <c r="B112" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112" s="7">
         <v>2</v>
@@ -2997,7 +3009,9 @@
       <c r="A122" t="s">
         <v>103</v>
       </c>
-      <c r="B122" s="11"/>
+      <c r="B122" s="11">
+        <v>0</v>
+      </c>
       <c r="C122">
         <v>2</v>
       </c>
@@ -3006,7 +3020,9 @@
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="11">
+        <v>0</v>
+      </c>
       <c r="C123">
         <v>1</v>
       </c>
@@ -3015,7 +3031,9 @@
       <c r="A124" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="11"/>
+      <c r="B124" s="11">
+        <v>0</v>
+      </c>
       <c r="C124">
         <v>2</v>
       </c>
@@ -3024,7 +3042,9 @@
       <c r="A125" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="11"/>
+      <c r="B125" s="11">
+        <v>0</v>
+      </c>
       <c r="C125">
         <v>2</v>
       </c>
@@ -3033,7 +3053,9 @@
       <c r="A126" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="11"/>
+      <c r="B126" s="11">
+        <v>0</v>
+      </c>
       <c r="C126">
         <v>2</v>
       </c>
@@ -3042,7 +3064,9 @@
       <c r="A127" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="11"/>
+      <c r="B127" s="11">
+        <v>0</v>
+      </c>
       <c r="C127">
         <v>2</v>
       </c>
@@ -3076,9 +3100,17 @@
       <c r="A131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="11"/>
+      <c r="B131" s="11">
+        <v>0</v>
+      </c>
       <c r="C131">
         <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <f>SUM(B13:B131)</f>
+        <v>92.5</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippelegault/Documents/UniY3/Comp3004/master1/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D26596-A30E-B048-BD69-08CF331CB35F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28660" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" refMode="R1C1"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -641,29 +640,118 @@
     <t>shown visually in testing (played on separate machines)</t>
   </si>
   <si>
-    <t xml:space="preserve">shown visually in testing </t>
-  </si>
-  <si>
-    <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 45-47)</t>
-  </si>
-  <si>
     <t>shown visually in testing (iterate between player windows to see updated GUIs)</t>
   </si>
   <si>
     <t>shown visually in testing(use show player button, see updated values)</t>
   </si>
   <si>
-    <t>test not functional in multiplayer</t>
-  </si>
-  <si>
-    <t>qas</t>
+    <t>shown visually in testing(use show player button, see updated values for #Cards)</t>
+  </si>
+  <si>
+    <t>shown visually in testing(use show player button, cards displayed for each player)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (shown in text box under the cards)</t>
+  </si>
+  <si>
+    <t>shown visually in testing(use show player button, see updated #Cards)</t>
+  </si>
+  <si>
+    <t>shown visually / COMP3004-QUEST/Documentation/logs/GameLog.log (lines 16-19)</t>
+  </si>
+  <si>
+    <r>
+      <t>shown visually in testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / GameLog.log (lines 21-23)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">shown visually in testing / GameLog.log (lines 251-253) </t>
+  </si>
+  <si>
+    <t>shown visually in testing / GameLog.log (lines 254-256)</t>
+  </si>
+  <si>
+    <t>shown visually in testing / GameLog.log (line 259)</t>
+  </si>
+  <si>
+    <t>shown visually in testingshown visually in +C[3]testing</t>
+  </si>
+  <si>
+    <t>shown visually in testing(cards flipped for all players after stage completed) / GameLog.log (line 29)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (shown in text box under the cards) /GameLog.log (lines 30-31)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (use show player button after stage is completed) / GameLog.log (line 51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown visually in testing(use show player button, see updated #Cards) </t>
+  </si>
+  <si>
+    <t>shown visually in testing (shown in text box under the cards) /GameLog.log (lines 126-131)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (use show player button, see update #shields) /GameLog.log (lines 44-53)</t>
+  </si>
+  <si>
+    <t>shown visually in testing(use show player button, see updated #Cards) /GameLog.log (line 54)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 54-57)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 60-62)</t>
+  </si>
+  <si>
+    <r>
+      <t>shown visually in testing (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>shown in text box beneath card hand) /GameLog.log (lines 138-145)</t>
+    </r>
+  </si>
+  <si>
+    <t>shown visually in testing /GameLog.log (lines 146-154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown visually in testing (iterate between player windows to see updated GUIs / GameLog.log (lines 159-160) </t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 160-161)</t>
+  </si>
+  <si>
+    <t>(player 2 sponsors but test not implemented) shown visually in testing / GameLog.log (lines (162-165)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 171-173)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 203-208)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (line 184)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -722,6 +810,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1661,11 +1754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1766,7 @@
     <col min="1" max="1" width="80.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1982,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1996,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2073,9 +2166,7 @@
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2089,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2119,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2133,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2147,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2161,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,6 +2310,9 @@
       <c r="C51" s="7">
         <v>1</v>
       </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
@@ -2230,6 +2324,9 @@
       <c r="C52" s="7">
         <v>1</v>
       </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
@@ -2242,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2269,6 +2366,9 @@
       <c r="C55" s="7">
         <v>1</v>
       </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
@@ -2281,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2295,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2343,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2357,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2371,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2385,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,19 +2518,19 @@
       <c r="C69" s="7">
         <v>1</v>
       </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="7">
         <v>2</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
       </c>
       <c r="E70" s="7"/>
     </row>
@@ -2439,13 +2539,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="7">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2470,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2484,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E75" s="7"/>
     </row>
@@ -2493,13 +2593,13 @@
         <v>69</v>
       </c>
       <c r="B76" s="11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C76" s="7">
         <v>0.5</v>
       </c>
       <c r="D76" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -2514,7 +2614,7 @@
         <v>0.5</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -2548,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E80" s="7"/>
     </row>
@@ -2574,9 +2674,6 @@
       <c r="C82" s="7">
         <v>1</v>
       </c>
-      <c r="D82" t="s">
-        <v>140</v>
-      </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2590,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E83" s="7"/>
     </row>
@@ -3110,7 +3207,7 @@
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B132">
         <f>SUM(B13:B131)</f>
-        <v>92.5</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -622,9 +622,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 1-12)</t>
-  </si>
-  <si>
     <t>shown visually in testing</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
   </si>
   <si>
     <t>shown visually in testing(use show player button, see updated values for #Cards)</t>
-  </si>
-  <si>
-    <t>shown visually in testing(use show player button, cards displayed for each player)</t>
   </si>
   <si>
     <t>shown visually in testing (shown in text box under the cards)</t>
@@ -689,21 +683,12 @@
     <t>shown visually in testing(cards flipped for all players after stage completed) / GameLog.log (line 29)</t>
   </si>
   <si>
-    <t>shown visually in testing (shown in text box under the cards) /GameLog.log (lines 30-31)</t>
-  </si>
-  <si>
-    <t>shown visually in testing (use show player button after stage is completed) / GameLog.log (line 51)</t>
-  </si>
-  <si>
     <t xml:space="preserve">shown visually in testing(use show player button, see updated #Cards) </t>
   </si>
   <si>
     <t>shown visually in testing (shown in text box under the cards) /GameLog.log (lines 126-131)</t>
   </si>
   <si>
-    <t>shown visually in testing (use show player button, see update #shields) /GameLog.log (lines 44-53)</t>
-  </si>
-  <si>
     <t>shown visually in testing(use show player button, see updated #Cards) /GameLog.log (line 54)</t>
   </si>
   <si>
@@ -711,6 +696,55 @@
   </si>
   <si>
     <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 60-62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown visually in testing (iterate between player windows to see updated GUIs / GameLog.log (lines 159-160) </t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 160-161)</t>
+  </si>
+  <si>
+    <t>(player 2 sponsors but test not implemented) shown visually in testing / GameLog.log (lines (162-165)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 171-173)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 203-208)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (line 184)</t>
+  </si>
+  <si>
+    <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 225-235)</t>
+  </si>
+  <si>
+    <t>shown visually in testing(use show player button, cards displayed for each player) /GameLog.log (line 267-277)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (shown in text box under the cards) /GameLog.log (lines 267-277)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (use show player button after stage is completed) / GameLog.log (line 279)</t>
+  </si>
+  <si>
+    <r>
+      <t>shown visually in testing(use show player button, see updated #Cards)  / GameLog.log (lines 288-29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1), (lines 281-282)</t>
+    </r>
+  </si>
+  <si>
+    <t>shown visually in testing / GameLog.log (line 279)</t>
+  </si>
+  <si>
+    <t>shown visually in testing (use show player button, see update #shields) /GameLog.log (lines 301-306)</t>
   </si>
   <si>
     <r>
@@ -722,29 +756,11 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>shown in text box beneath card hand) /GameLog.log (lines 138-145)</t>
+      <t>shown in text box beneath card hand) /GameLog.log (lines 323-338)</t>
     </r>
   </si>
   <si>
-    <t>shown visually in testing /GameLog.log (lines 146-154)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shown visually in testing (iterate between player windows to see updated GUIs / GameLog.log (lines 159-160) </t>
-  </si>
-  <si>
-    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 160-161)</t>
-  </si>
-  <si>
-    <t>(player 2 sponsors but test not implemented) shown visually in testing / GameLog.log (lines (162-165)</t>
-  </si>
-  <si>
-    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 171-173)</t>
-  </si>
-  <si>
-    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (lines 203-208)</t>
-  </si>
-  <si>
-    <t>shown visually in testing (iterate between player windows to see updated GUIs) /GameLog.log (line 184)</t>
+    <t>shown visually in testing /GameLog.log (lines 344-350)</t>
   </si>
 </sst>
 </file>
@@ -1757,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1972,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1984,7 +2000,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1999,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2017,7 +2033,7 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2027,7 +2043,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2037,7 +2053,7 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2075,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2089,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2103,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2117,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2131,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2180,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2210,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2224,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2238,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2252,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2266,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2297,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2311,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2325,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2339,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2353,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2367,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2381,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2395,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2443,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2471,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2485,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2519,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2570,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E75" s="7"/>
     </row>
@@ -2599,7 +2615,7 @@
         <v>0.5</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -2614,7 +2630,7 @@
         <v>0.5</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -2648,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E80" s="7"/>
     </row>
@@ -2687,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E83" s="7"/>
     </row>

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippelegault/Documents/UniY3/Comp3004/master1/COMP3004-QUEST/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77175C7-C181-C94F-9F17-F0F444C38566}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28660" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="179017" refMode="R1C1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -613,9 +614,6 @@
     <t>Bells and whistles</t>
   </si>
   <si>
-    <t>Unity Solution Was used</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -762,12 +760,15 @@
   <si>
     <t>shown visually in testing /GameLog.log (lines 344-350)</t>
   </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1770,14 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="80.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -1786,7 +1787,7 @@
     <col min="5" max="6" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
@@ -1794,7 +1795,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>114</v>
       </c>
@@ -1802,13 +1803,13 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1819,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1837,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1844,18 +1845,18 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
@@ -1876,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1886,7 +1887,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1899,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1910,7 +1911,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1920,7 +1921,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
@@ -1932,25 +1933,25 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>126</v>
+      <c r="B17" s="9">
+        <v>2</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>6</v>
@@ -1969,7 +1970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1977,7 +1978,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1988,23 +1989,23 @@
         <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
@@ -2015,72 +2016,72 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
         <v>28</v>
       </c>
@@ -2091,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
         <v>30</v>
       </c>
@@ -2105,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2119,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -2133,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>33</v>
       </c>
@@ -2147,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
@@ -2161,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2175,17 +2176,17 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -2196,10 +2197,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
@@ -2207,7 +2208,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="B42" s="5">
         <v>1</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="7" t="s">
         <v>35</v>
       </c>
@@ -2226,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
         <v>41</v>
       </c>
@@ -2240,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2254,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
@@ -2268,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
         <v>43</v>
       </c>
@@ -2282,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -2296,13 +2297,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2313,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
@@ -2327,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
@@ -2341,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -2355,10 +2356,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
@@ -2369,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
         <v>78</v>
       </c>
@@ -2383,10 +2384,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
         <v>48</v>
       </c>
@@ -2397,10 +2398,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
@@ -2411,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>53</v>
       </c>
@@ -2425,16 +2426,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="7" t="s">
         <v>55</v>
       </c>
@@ -2445,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="7" t="s">
         <v>56</v>
       </c>
@@ -2459,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
@@ -2473,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
@@ -2487,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="7" t="s">
         <v>65</v>
       </c>
@@ -2501,30 +2502,30 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="7"/>
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="7" t="s">
         <v>60</v>
       </c>
@@ -2535,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>61</v>
       </c>
@@ -2550,7 +2551,7 @@
       </c>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
@@ -2561,21 +2562,21 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="C72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="7" t="s">
         <v>67</v>
       </c>
@@ -2586,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="7" t="s">
         <v>68</v>
       </c>
@@ -2600,11 +2601,11 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="7" t="s">
         <v>69</v>
       </c>
@@ -2615,11 +2616,11 @@
         <v>0.5</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
         <v>70</v>
       </c>
@@ -2630,18 +2631,18 @@
         <v>0.5</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
         <v>72</v>
       </c>
@@ -2653,7 +2654,7 @@
       </c>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
@@ -2664,11 +2665,11 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="7" t="s">
         <v>75</v>
       </c>
@@ -2692,7 +2693,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="7" t="s">
         <v>76</v>
       </c>
@@ -2703,16 +2704,16 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="7"/>
       <c r="C84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="6" t="s">
         <v>79</v>
       </c>
@@ -2725,19 +2726,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="7"/>
       <c r="C86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="7" t="s">
         <v>107</v>
       </c>
@@ -2747,9 +2748,12 @@
       <c r="C88" s="7">
         <v>1</v>
       </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="7" t="s">
         <v>108</v>
       </c>
@@ -2759,9 +2763,12 @@
       <c r="C89" s="7">
         <v>1</v>
       </c>
+      <c r="D89" t="s">
+        <v>165</v>
+      </c>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="7" t="s">
         <v>109</v>
       </c>
@@ -2771,9 +2778,12 @@
       <c r="C90" s="7">
         <v>1</v>
       </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="7" t="s">
         <v>110</v>
       </c>
@@ -2783,21 +2793,24 @@
       <c r="C91" s="7">
         <v>1</v>
       </c>
+      <c r="D91" t="s">
+        <v>165</v>
+      </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0.5</v>
       </c>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
@@ -2809,7 +2822,7 @@
       </c>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="7" t="s">
         <v>8</v>
       </c>
@@ -2821,7 +2834,7 @@
       </c>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +2846,7 @@
       </c>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2858,7 @@
       </c>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="7" t="s">
         <v>9</v>
       </c>
@@ -2856,7 +2869,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="7" t="s">
         <v>1</v>
       </c>
@@ -2867,7 +2880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="7" t="s">
         <v>101</v>
       </c>
@@ -2889,7 +2902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="7" t="s">
         <v>102</v>
       </c>
@@ -2900,7 +2913,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
         <v>87</v>
       </c>
@@ -2911,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
         <v>81</v>
       </c>
@@ -2922,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
         <v>82</v>
       </c>
@@ -2933,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
         <v>83</v>
       </c>
@@ -2944,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="7" t="s">
         <v>84</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="7" t="s">
         <v>85</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>86</v>
       </c>
@@ -2977,7 +2990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="7" t="s">
         <v>88</v>
       </c>
@@ -2989,7 +3002,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="7" t="s">
         <v>89</v>
       </c>
@@ -3001,7 +3014,7 @@
       </c>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="7" t="s">
         <v>90</v>
       </c>
@@ -3013,7 +3026,7 @@
       </c>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
         <v>91</v>
       </c>
@@ -3025,7 +3038,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
         <v>92</v>
       </c>
@@ -3037,7 +3050,7 @@
       </c>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="7" t="s">
         <v>93</v>
       </c>
@@ -3049,7 +3062,7 @@
       </c>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="7" t="s">
         <v>94</v>
       </c>
@@ -3060,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="7" t="s">
         <v>95</v>
       </c>
@@ -3071,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="7" t="s">
         <v>96</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="7" t="s">
         <v>97</v>
       </c>
@@ -3093,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="7" t="s">
         <v>98</v>
       </c>
@@ -3104,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="E120" t="s">
         <v>117</v>
       </c>
@@ -3113,12 +3126,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -3129,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3140,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -3162,7 +3175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -3173,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="E128" t="s">
         <v>100</v>
       </c>
@@ -3193,12 +3206,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>123</v>
       </c>
@@ -3209,7 +3222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
         <v>122</v>
       </c>
@@ -3220,13 +3233,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="B132">
         <f>SUM(B13:B131)</f>
-        <v>91.75</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="B133" t="s">
         <v>124</v>
       </c>
@@ -3235,7 +3248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>125</v>
       </c>

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77175C7-C181-C94F-9F17-F0F444C38566}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71876BE8-4100-7A4A-81EB-C5B56D6F1170}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1774,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71876BE8-4100-7A4A-81EB-C5B56D6F1170}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E99BB3-EFC4-6B44-AB72-164F1097A637}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -623,9 +623,6 @@
     <t>shown visually in testing</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>COMP3004-QUEST/Documentation/logs/GameLog.log (lines 17-19)</t>
   </si>
   <si>
@@ -762,6 +759,24 @@
   </si>
   <si>
     <t>Unit Test</t>
+  </si>
+  <si>
+    <t>boardGame.log (line 27)</t>
+  </si>
+  <si>
+    <t>UI yes</t>
+  </si>
+  <si>
+    <t>boardGame.log (line 158)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MultiplayerGame.cs (Line 831 - 879)</t>
+  </si>
+  <si>
+    <t>MultiEventBehaviour.cs (Line 26 -163)</t>
   </si>
 </sst>
 </file>
@@ -1774,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1915,7 +1930,9 @@
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
@@ -1989,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2001,7 +2018,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -2016,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2033,9 +2050,6 @@
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
@@ -2043,18 +2057,12 @@
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>129</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2092,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2106,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2120,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2148,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2162,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2197,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2227,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2241,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2255,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2269,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2283,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2314,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2328,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2342,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2356,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2370,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2384,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2398,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2412,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2426,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2446,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2460,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2474,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2488,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2502,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2536,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2562,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2587,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2601,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75" s="7"/>
     </row>
@@ -2616,7 +2624,7 @@
         <v>0.5</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" s="7"/>
     </row>
@@ -2631,7 +2639,7 @@
         <v>0.5</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" s="7"/>
     </row>
@@ -2665,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="7"/>
     </row>
@@ -2704,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83" s="7"/>
     </row>
@@ -2749,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E88" s="7"/>
     </row>
@@ -2764,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E89" s="7"/>
     </row>
@@ -2779,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E90" s="7"/>
     </row>
@@ -2794,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E91" s="7"/>
     </row>
@@ -2820,6 +2828,9 @@
       <c r="C93">
         <v>0.5</v>
       </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:6">
@@ -2844,6 +2855,9 @@
       <c r="C95">
         <v>0.5</v>
       </c>
+      <c r="D95" t="s">
+        <v>166</v>
+      </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:6">
@@ -2863,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C97" s="7">
         <v>0.5</v>
@@ -2878,6 +2892,9 @@
       </c>
       <c r="C98" s="7">
         <v>0.5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2890,6 +2907,9 @@
       <c r="C99" s="7">
         <v>1</v>
       </c>
+      <c r="D99" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="7" t="s">
@@ -2901,6 +2921,9 @@
       <c r="C100" s="7">
         <v>0.5</v>
       </c>
+      <c r="D100" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="7" t="s">
@@ -2912,6 +2935,9 @@
       <c r="C101" s="7">
         <v>0.5</v>
       </c>
+      <c r="D101" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="7" t="s">
@@ -2923,6 +2949,9 @@
       <c r="C102" s="7">
         <v>1</v>
       </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
@@ -2934,6 +2963,9 @@
       <c r="C103" s="7">
         <v>1</v>
       </c>
+      <c r="D103" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="7" t="s">
@@ -2945,6 +2977,9 @@
       <c r="C104" s="7">
         <v>1</v>
       </c>
+      <c r="D104" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
@@ -2956,6 +2991,9 @@
       <c r="C105" s="7">
         <v>1</v>
       </c>
+      <c r="D105" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="7" t="s">
@@ -2967,6 +3005,9 @@
       <c r="C106" s="7">
         <v>0.5</v>
       </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="7" t="s">
@@ -2978,6 +3019,9 @@
       <c r="C107" s="7">
         <v>0.5</v>
       </c>
+      <c r="D107" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="7" t="s">
@@ -2989,6 +3033,9 @@
       <c r="C108" s="7">
         <v>0.5</v>
       </c>
+      <c r="D108" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="7" t="s">
@@ -3000,6 +3047,9 @@
       <c r="C109" s="7">
         <v>1</v>
       </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5">
@@ -3012,6 +3062,9 @@
       <c r="C110" s="7">
         <v>1</v>
       </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5">
@@ -3024,6 +3077,9 @@
       <c r="C111" s="7">
         <v>0.5</v>
       </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5">
@@ -3036,6 +3092,9 @@
       <c r="C112" s="7">
         <v>2</v>
       </c>
+      <c r="D112" t="s">
+        <v>169</v>
+      </c>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:6">
@@ -3043,10 +3102,13 @@
         <v>92</v>
       </c>
       <c r="B113" s="11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C113" s="7">
         <v>1.5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>170</v>
       </c>
       <c r="E113" s="7"/>
     </row>
@@ -3060,6 +3122,9 @@
       <c r="C114" s="7">
         <v>1</v>
       </c>
+      <c r="D114" t="s">
+        <v>170</v>
+      </c>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:6">
@@ -3072,6 +3137,9 @@
       <c r="C115" s="7">
         <v>1</v>
       </c>
+      <c r="D115" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="7" t="s">
@@ -3083,17 +3151,21 @@
       <c r="C116" s="7">
         <v>1</v>
       </c>
+      <c r="D116" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B117" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
       </c>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="7" t="s">
@@ -3105,6 +3177,9 @@
       <c r="C118" s="7">
         <v>1</v>
       </c>
+      <c r="D118" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="7" t="s">
@@ -3116,6 +3191,9 @@
       <c r="C119" s="7">
         <v>1</v>
       </c>
+      <c r="D119" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
       <c r="E120" t="s">
@@ -3236,7 +3314,7 @@
     <row r="132" spans="1:3">
       <c r="B132">
         <f>SUM(B13:B131)</f>
-        <v>93.25</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="133" spans="1:3">

--- a/Documentation/Iteration2Grid.xlsx
+++ b/Documentation/Iteration2Grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybui/Documents/School/Winter2018/comp3004/proj/COMP3004-QUEST/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E99BB3-EFC4-6B44-AB72-164F1097A637}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DCC0C0-20F5-B94C-9DF5-C823EEF0FA20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
   <si>
     <t>is it possible for a participant to NOT play a card for a stage</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -764,19 +764,40 @@
     <t>boardGame.log (line 27)</t>
   </si>
   <si>
-    <t>UI yes</t>
-  </si>
-  <si>
     <t>boardGame.log (line 158)</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>MultiplayerGame.cs (Line 831 - 879)</t>
-  </si>
-  <si>
-    <t>MultiEventBehaviour.cs (Line 26 -163)</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>EventLog.log(Line 21 - 26)</t>
+  </si>
+  <si>
+    <t>EventLog.log(Line 42 - 47)</t>
+  </si>
+  <si>
+    <t>EventLog.log(Line 65 - 67)</t>
+  </si>
+  <si>
+    <t>EventLog.log(Line 15 - 17)</t>
+  </si>
+  <si>
+    <t>EventLog.log(Line 49 - 59)</t>
+  </si>
+  <si>
+    <t>ALLY.log(Line 146 - 164), Line MultiplayerGame.cs (Line 831 - 879)</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>GameLog.log (Line 166)</t>
+  </si>
+  <si>
+    <t>DUPLICATE.log(line 28)</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2843,6 +2864,9 @@
       <c r="C94">
         <v>0.5</v>
       </c>
+      <c r="D94" t="s">
+        <v>177</v>
+      </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:6">
@@ -2856,7 +2880,7 @@
         <v>0.5</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E95" s="7"/>
     </row>
@@ -2870,6 +2894,9 @@
       <c r="C96" s="7">
         <v>0.5</v>
       </c>
+      <c r="D96" t="s">
+        <v>176</v>
+      </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5">
@@ -2894,7 +2921,7 @@
         <v>0.5</v>
       </c>
       <c r="D98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2922,7 +2949,7 @@
         <v>0.5</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2936,7 +2963,7 @@
         <v>0.5</v>
       </c>
       <c r="D101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2950,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2964,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2978,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2992,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3006,7 +3033,7 @@
         <v>0.5</v>
       </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3020,7 +3047,7 @@
         <v>0.5</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3034,7 +3061,7 @@
         <v>0.5</v>
       </c>
       <c r="D108" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3048,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E109" s="7"/>
     </row>
@@ -3063,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E110" s="7"/>
     </row>
@@ -3078,7 +3105,7 @@
         <v>0.5</v>
       </c>
       <c r="D111" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E111" s="7"/>
     </row>
@@ -3093,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E112" s="7"/>
     </row>
@@ -3108,7 +3135,7 @@
         <v>1.5</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E113" s="7"/>
     </row>
@@ -3123,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E114" s="7"/>
     </row>
@@ -3152,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3178,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3192,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:6">
